--- a/PBL4_vscode/result/post_result.xlsx
+++ b/PBL4_vscode/result/post_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5307568be5dbc1ba/Desktop/PBL4_vscode/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_08518409187274DFE54878D6425DCE3A874771DF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{054875DC-F0F8-4674-8160-C7BAAA051B29}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_6AC11DEDD86A6CDFE54878D6425DCE3A87473CAD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9B9A07F-BE58-448E-921D-129C044B4121}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>text</t>
   </si>
@@ -56,6 +56,186 @@
   </si>
   <si>
     <t>post_date</t>
+  </si>
+  <si>
+    <t>V/v HỖ TRỢ POST BÀI
+Chào các thành viên, hiện Group Việc làm IT Đà Nẵng tự động từ chối 1 số bài đăng. Ban quản trị gửi 1 số yêu cầu nội dung về bài post để được duyệt.
+--------------------
+1. Nội dung bài viết… Xem thêm chỉ liên quan đến tuyển dụng CNTT.
+2. Tên công ty, nội dung công việc, số lượng yêu cầu tuyển, địa điểm làm việc phải rõ ràng.
+3. Email liên lạc phải có tên miền của Công ty.
+--------------------
+Khi cần hỗ trợ các thành viên có thể liên hệ:
+➡ Email: hoangvd.it@dut.udn.vn
+➡ Facebook: https://www.facebook.com/hoangvd.it
+Best Regards!</t>
+  </si>
+  <si>
+    <t>[Đà Nẵng] Với văn hóa trẻ trung, môi trường làm việc năng động, Công ty Enable Startup đang chào đón thành viên mới gia nhập cùng chúng tôi:
+📌 Chế độ phúc lợi đầy đủ: thưởng quý và năm, bảo hiểm chăm sóc sứcXem thêm khỏe…
+📌 Làm việc trực tiếp với khách hàng quốc tế từ Singapore, Nhật Bản, Châu Âu với sự đa dạng trong các dự án.
+📌 Môi trường làm việc thân thiện, không phân cấp, không làm việc ngoài giờ.</t>
+  </si>
+  <si>
+    <t>🎀CÔNG TY UNITECH TUYỂN DỤNG RẦM RỘ🎀
+Gia nhập đội ngũ phát triển tài năng của Unitech !
+⏩Vị trí BACKEND DEVELOPER⏪
+Xin chào các bạn trẻ,
+Bạn có đam mê với công nghệ và muốn thử sức với vị trí Backend DeveloperXem thêm đầy thú vị không? Hãy cùng Công ty Cổ phần Unitech, nơi những ý tưởng sáng tạo và sự phát triển không ngừng nghỉ!
+Unitech tập trung vào việc xây dựng các ứng dụng phần mềm tuyệt vời. Bạn sẽ có cơ hội làm việc cùng đội ngũ giàu kinh nghiệm và năng động, được trau dồi kỹ năng và phát triển sự nghiệp trong một môi trường chuyên nghiệp. Đặc biệt là cơ hội làm việc trực tiếp với đối tác Châu Âu.
+🌿🌿🌿🌿🌿🌿🌿🌿🌿🌿🌿🌿🌿
+Nếu bạn muốn trở thành một phần của đội ngũ phát triển tài năng của chúng tôi, hãy gửi ngay CV của bạn đến với chúng tôi:
+Địa chỉ: Tầng 7, Công viên phần mềm, 2 Quang Trung, Đà Nẵng
+Email: tuyendung@unitech.vn
+Skype: tramanhnt81
+Zalo: 0906.969.995
+Đừng chần chừ, hãy bắt đầu cuộc hành trình chuyên nghiệp của bạn với Unitech ngay hôm nay!
+🌿🌿🌿🌿🌿🌿🌿🌿🌿🌿🌿🌿🌿</t>
+  </si>
+  <si>
+    <t>🔥[FPT SOFTWARE ĐÀ NẴNG] TÌM KIẾM CÁC ỨNG VIÊN CHO:
+👉AWS DevOps
+👉Network Pentester
+👉Incident Response
+👉RPA Developer
+ỨNG VIÊN SẼ NHẬN ĐƯỢC CÁC CHẾ ĐỘ ĐÃI NGỘ HẤP DẪN NHƯ:
+🔸 Mức lương thỏa thuận theo năng lực.
+🔸 BHXH,… Xem thêm BHYT, BHTN theo quy định nhà nước.
+🔸 BH FPT Care dành riêng cho cá nhân và người thân.
+🔸 Thưởng hiệu quả công việc theo Quý 3 tháng 1 lần.
+🔸 Chương trình đào tạo bài bản, là cơ hội tốt để nâng cao năng lực và phát triển bản thân.
+🔸 Cơ hội làm việc với các khách hàng lớn trên thế giới, công nghệ tiên tiến, phát triển bản thân…
+-----------------------------
+Vậy còn chần chờ gì nữa mà không gửi ngay CV về
+👉 Email: NhanNTT56@fpt.com
+Nếu cần thêm thông tin về vị trí và các job khác thì hãy IB ngay cho em nha.👉👉</t>
+  </si>
+  <si>
+    <t>❗❗❗ HOT JOB NOVEMBER❗❗❗
+📣Luvina bên em đang open vị trí Senior/Technical leader PHP fullstack tại Đà Nẵng với những chế độ đãi ngộ siêu hấp dẫn, mức lương 40-60M + thử việc 100% lương.
+💥Requirements:
+✅More 5 years… Xem thêm of full stack design and development skills.
+✅Strong technical expertise in Laravel, React.js, Vue.js and MySQL required.
+✅ Strong written and verbal English communication skills.
+📩: nguyenngocminh@luvina.net
+Anh/chị nào có nhu cầu ib em Minh liền tay để được tư vấn về công việc nha, nhờ cả nhà giới thiệu giúp em ạ 🥰🥰🥰</t>
+  </si>
+  <si>
+    <t>[090BRAVO COMPANY] TUYỂN DỤNG
+01 Business Analyst
+🔥Cơ hội lớn được làm việc ở một trong những công ty phát triển phần mềm hàng đầu tại Việt Nam🔥
+090Bravo Company hiện đang tuyển dụng vị trí Nhân viên Business… Xem thêm Analyst. Apply ngay để có cơ hội trở thành thành viên của nhà 090Bravo nhé
+Thông tin chi tiết: https://docs.google.com/.../1fQnbPLcZZTYHatHDPLHUTiJ.../edit
+🌱🌱🌱Bạn sẽ nhận được:
+Mức lương hấp dẫn
+Cơ chế đãi ngộ tập trung vào phát triển nhân tài.
+Được hưởng các chế độ phúc lợi theo Luật lao động Việt Nam: BHXH, BHYT,..
+Môi trường làm việc vui vẻ, trẻ trung, chuyên nghiệp, sáng tạo, thân thiện.
+Nhiều khoản thưởng các dịp lễ, tết, cuối năm.
+Công ty tài trợ 100% chi phí các hoạt động nội bộ hằng năm team-building, company trip, happy hour,...
+Đánh giá năng lực và xét tăng lương 2 lần/năm.
+Có cơ hội làm việc, học hỏi văn hóa từ các đối tác lớn trên thế giới.
+📩 Thông tin e-mail gửi về: hrdept.bravo@gmail.com với tiêu đề [090BRAVO 2023] - [Họ và tên]- Vị trí ứng tuyển.</t>
+  </si>
+  <si>
+    <t>Chào cả nhà!
+Để bổ sung members cho dự án sắp về, Vinova cần thêm:
+01 QC Engineer 2+YOE
+Yêu cầu nho nhỏ:
+Giao tiếp tiếng anh ổn
+Benefits:
+100% lương ngay trong thời gian thử việc
+Teambuilding/Company trip/Events ngập tràn
+Lương tháng 13 và những khoản bonus khác,...
+JD chi tiết: https://bit.ly/3u6ArF2
+Ping mình ngay để trao đổi thêm nhé!!!
+Messenger
+Email: cara@vinova.com.sg</t>
+  </si>
+  <si>
+    <t>[CẨM LỆ - ĐÀ NẴNG] KIAISOFT tìm kiếm vị trí Middle - Senior PHP offer ~ 35M
+✅Yêu cầu:
+Có ít nhất 3 năm kinh nghiệm làm việc với PHP, thành thạo ít nhất 1 PHP framework (Laravel, CakePHP, Yii…)
+Nắm vững mô hình… Xem thêm MVC, OOP và các giải thuật cơ bản
+Ít nhất 1 năm kinh nghiệm làm việc với SQL/NoSQL
+♻️ Quyền lợi:
+Offer ~ 35M/ tháng
+Lương tháng 13 + thưởng hiệu suất
+Review lương đều đặn 2 lần/năm
+Thưởng Lễ, Tết, chế độ hiếu hỉ, ốm đau
+2 buổi remote/tháng để refresh lại năng lượng, số ngày phép 12 ngày/năm
+Ưu tiên phát triển con người với các buổi talkshow hàng tháng, lớp tiếng Nhật, chứng chỉ chuyên môn,...)
+Chơi hết mình cùng anh em Kiai tại: Câu lạc bộ thể thao, teambuilding, du lịch, event theo tháng, Happy Friday hàng tuần,...
+Cơ hội trở thành key member của công ty với phụ cấp hấp dẫn
+📌 Liên hệ ứng tuyển:
+Email: phuong.le@kiaisoft.com
+Phone: 0342605294
+🏢 Địa chỉ: Tầng 4, Ricco Building, 363 Nguyễn Hữu Thọ, Khuê Trung, Cẩm Lệ, Đà Nẵng</t>
+  </si>
+  <si>
+    <t>🌺LOA LOA LOA🌺
+UNITECH DACH CẦN TUYỂN DỤNG CÁC VỊ TRÍ BÊN DƯỚI ⬇️
+9️⃣8️⃣7️⃣6️⃣5️⃣4️⃣3️⃣2️⃣1️⃣
+⏩XIN VUI LÒNG LIÊN HỆ: Vandtc@unitech.vn/0983.886.636
+🎈🎈🎈🎈🎈🎈🎈🎈🎈
+Thân nhờ cả nhà cùng Share và hỗ trợ nha, yêu thương gửi đến cả nhà nha ❤️❤️❤️❤️❤️❤️❤️</t>
+  </si>
+  <si>
+    <t>👨‍💻Spark creativity as a 𝐏𝐲𝐭𝐡𝐨𝐧 𝐁𝐚𝐜𝐤-𝐄𝐧𝐝 𝐃𝐞𝐯𝐞𝐥𝐨𝐩𝐞𝐫 on our team.
+Build powerful solutions, craft efficient code, architect remarkable systems, and drive digital excellence.
+Shape the future with 𝐃𝐢𝐠𝐢𝐭𝐚𝐥 𝐅𝐨𝐫𝐭𝐫𝐞𝐬𝐬.… Xem thêm Join us today to enjoy various benefits:
+💰 Competitive and attractive salary.
+💻 Fully equipped with modern work tools, including an iMac and additional displays to enhance your productivity.
+🔝 Enjoy welfare benefits according to company regulations.
+🚌 Participate in company trips and workshops.
+🚀 Explore real-life opportunities and career development in the field of IoT, mobile and web technology.
+✌️ Performance review: 2 times/year.
+🎯 Career path definition support.
+🥰 13th-month salary and performance bonus.
+Send your CV to hr@digitalfortress.dev to begin the journey of professional progress with Digital Fortress!
+———————————————————————————
+𝐃𝐢𝐠𝐢𝐭𝐚𝐥 𝐅𝐨𝐫𝐭𝐫𝐞𝐬𝐬 - 𝐑𝐢𝐬𝐞 𝐚𝐛𝐨𝐯𝐞 𝐭𝐡𝐞 𝐨𝐫𝐝𝐢𝐧𝐚𝐫𝐲 𝐚𝐧𝐝 𝐜𝐫𝐞𝐚𝐭𝐞 𝐞𝐱𝐭𝐫𝐚𝐨𝐫𝐝𝐢𝐧𝐚𝐫𝐲 𝐢𝐦𝐩𝐚𝐜𝐭.
+𝐇𝐨𝐭𝐥𝐢𝐧𝐞: 0358 006 393
+𝐄𝐦𝐚𝐢𝐥: hr@digitalfortress.dev
+𝐖𝐞𝐛𝐬𝐢𝐭𝐞: https://www.digitalfortress.dev</t>
+  </si>
+  <si>
+    <t>Halloween cùng pumpking Kiều Dy đi tìm dev cho vị trí #Senior #Golang đang tuyển được 😎😎😎
+🎃 HOT! HOT! HOT 🎃
+SUPREMETECH ĐÀ NẴNG ĐANG CHIÊU MỘ GẤP ỨNG VIÊN #SENIOR #GOLANG #DEVELOPER VỀ BUILD DỰ ÁN KHỦNG CÙNG… Xem thêm TEAM!
+Ngoài ra SupremeTech còn open vị trí non-tech cho ứng viên apply vào vị trí #VP #ASSISTANT đây ạ!
+Đến với nhà S, bạn sẽ có:
+🌟 Có career path riêng cho từng cá nhân
+🌟 Lương xứng đáng với năng lực. Trả lương theo level, không theo độ tuổi
+🌟 Review 6 tháng 1 lần, bonus các dịp lễ hằng năm
+🌟 Thưởng tháng 13, Macbook cấp riêng cho từng nhân viên
+🌟 Quẩy hết mình với đầy ắp các sự kiện teambuilding hàng tháng, du lịch hàng năm
+🌟 Làm giờ hành chính từ thứ Hai - Sáu, không OT, đảm bảo cân bằng giữa công việc và cuộc sống
+🔥 Apply ngay tại hr@supremetech.vn
+Chấm hoặc ping mình để lấy JD tại:
+FB: Kiều Vy
+Skype: kieuvy1909</t>
+  </si>
+  <si>
+    <t>[BAP] VIETNAM - JAPAN TÌM KIẾM
+✨ BrSE:
+Đang có JLPT N2+
+Background IT và đã có từ 2+ năm kinh nghiệm trở lên ở roles BrSE.
+✨IT Sales:
+JLPT N2+
+Không yêu cầu kinh nghiệm
+Ngoại hình ưa nhìn là 1 điểm cộng
+⏩ Phỏng vấn 1… Xem thêm round và offer sau 7 ngày
+☑️ Mức lương upto 700 man/năm tại Nhật
+☑️ Chi trả toàn bộ chi phí đi lại, di chuyển, chỗ ở, visa tại Nhật Bản và vé về Việt Nam hằng năm
+☑️ Healthcare, chế độ chăm sóc, trợ cấp cho gia đình nhân viên từ 1 man/tháng
+☑️ Onsite Nhật (Tokyo, Osaka) hoặc từ Nhật muốn về VN (HCM, Đà Nẵng, Huế, Hà Nội)
+📩 Inbox mình nếu cần thêm thông tin về Job nhé
+📩 email: linhtph@bap.jp
+__________________________________
+Website công ty: https://bap-software.net/en/
+Fanpage: https://www.facebook.com/bap32
+BAP career: https://www.facebook.com/BAP.Tuyendung</t>
   </si>
   <si>
     <t>HALLOWEEN năm nay mình cần 1 team các bạn hóa trang thành dev nodejs từ trên 1 - 3 năm kinh nghiệm join dự án với ạ 🤩🤩🤩
@@ -111,91 +291,6 @@
 ✍️ Lắng nghe 4 phiên chia sẻ hấp dẫn, cô đọng cùng phiên networking trao đổi - kết nối cộng đồng
 ✍️ Kết nối 200+ người tham dự là các lập trình viên, sinh viên đam mê Cloud và các lĩnh vực có liên quan
 Mong rằng cộng đồng IT tại Đà Nẵng sẽ đăng kí tham dự và trở thành một phần của sự kiện năm nay! Hẹn gặp mọi người tại sự kiện ^^</t>
-  </si>
-  <si>
-    <t>Hiện Azoom vẫn đang tìm kiếm các anh/chị 𝑭𝒖𝒍𝒍𝒔𝒕𝒂𝒄𝒌 𝒋𝒂𝒗𝒂𝒔𝒄𝒓𝒊𝒑𝒕 𝑫𝒆𝒗𝒆𝒍𝒐𝒑𝒆𝒓 để lấp đầy số ít chỗ ngồi còn trống tại cả Hà Nội và Đà Nẵng
-💥 Chế độ:
-- Offer từ 19-45M
-- Thử việc 100% lương, BHXH 100% lương
-- Review tăng… Xem thêm lương 2 lần/năm
-- Cấp Macbook + màn hình làm việc
-- Công ty năng động, sáng tạo, vui vẻ
-- Hoạt động teambuilding gắn kết hàng quý ...
-💥Chỉ yêu cầu từ 3 năm kn vuejs/nodejs
-Contact e để trao đổi thêm ạ!
-------------------------------------------
-𝐆𝐦𝐚𝐢𝐥: kim.phuong.thuy@azoom.jp
-𝐀𝐝𝐝𝐫𝐞𝐬𝐬:
-📍 Hà Nội: Tầng 22, tòa nhà Handico Tower, đường Phạm Hùng, Phường Mễ Trì, Quận Nam Từ Liêm, Thành phố Hà Nội.
-📍Đà Nẵng: Tùng Lâm Tower, Quận Hải Châu, Thành Phố Đà Nẵng.</t>
-  </si>
-  <si>
-    <t>[Da Nang - Hybrid job] SaigonTechnology tuyển dụng:
-- Middle/Senior Python developer
-- Middle Angular developer
-Hãy mau nhanh chân join công ty để tham dự mùa giải đá bóng năm 2024 nè 🥳. Bên cạnh đó, công tyXem thêm còn tổ chức hội thao gồm nhiều môn thể thao đa dạng, nhằm tạo thêm nhiều sân chơi và cơ hội gắn kết mọi người cùng nhau 🥰
-Benefit:
-- 100% lương trong thời gian thử việc
-- Hybrid job, lên văn phòng 3 ngày/tuần. Thời gian flexible
-- Review lương 2 lần/năm
-- Cấp full thiết bị làm việc
-- Client Âu Mỹ, môi trường trẻ, welcome idea-welcome feedback
-- Bảo hiểm PVI
-Contact:
-- Skype: live:ptkl158
-- Email: linh.phan@saigontechnology.com
-Địa chỉ: 36 Trần Quốc Toản, Đà Nẵng
----------------------------
-#SaigonTechnologyDaNang #Python #Angular</t>
-  </si>
-  <si>
-    <t>💥Trường Đại học Bách khoa, ĐHĐN tuyển dụng viên chức đợt 02 năm 2023💥
-👉Link chi tiết: https://dut.udn.vn/Tintuc/Thongbao/id/8607
-➖➖➖➖➖➖➖➖➖➖➖➖
-𝗙𝗮𝗰𝘂𝗹𝘁𝘆 𝗼𝗳 𝗜𝗻𝗳𝗼𝗿𝗺𝗮𝘁𝗶𝗼𝗻 𝗧𝗲𝗰𝗵𝗻𝗼𝗹𝗼𝗴𝘆, 𝗗𝗨𝗧 - 𝗨𝗗
-🏢54 Nguyen Luong Bang street, Lien Chieu District, Da Nang City, VN
-☎ 0236.3736.949
-📧cntt@dut.udn.vn
-🌎http://dut.udn.vn/KhoaCNTT</t>
-  </si>
-  <si>
-    <t>😍[FPT SOFTWARE ĐÀ NẴNG] apply liền vị trí RPA Developer, offer upto 1200$ - nhận việc ngay.
-- Có kiến thức về kiến trúc Web và Application
-- Thành thạo một trong các ngôn ngữ lập trình C#, Vb.Net
-Quyền lợi:
-🌟 Các… Xem thêm mức thưởng hấp dẫn: thưởng hiệu quả công việc theo Quý, thưởng lễ 30/4 và 2/9 theo thâm niên làm việc…
-🌟 Chương trình An cư lạc nghiệp hỗ trợ lãi suất vay 4% khi mua nhà, mua ô tô…
-🌟 Cơ hội được thử thách và tham gia vào các dự án của phòng Bảo mật thông tin lớn nhất FSOFT.
-🌟 Cùng nhiều đãi ngộ khác: FPT Care, hỗ trợ phí đào tạo, thi lấy chứng chỉ quốc tế, thưởng dự án, lương tháng 13…
-----------------------------
-Cần hỗ trợ thêm thông tin thì inbox facebook.
-📧NhanNTT56@fpt.com để mình trao đổi thêm nha</t>
-  </si>
-  <si>
-    <t>Khởi động tháng 11 với list job hấp dẫn không thể bỏ lỡ từ nhà Rikkei 🔥🔥🔥
-Cơ hội làm việc trài dài:
-Đà Nẵng ▶️ Huế ▶️ Nhật Bản▶️ Mỹ với nhiều cơ hội onsite ngắn hạn/ dài hạn vô cùng hấp dẫn
-🤞 Lương cạnh tranh (thử… Xem thêm việc full lương)
-🤞Min 13 tháng lương
-🤞Thưởng dự án hàng tháng
-🤞Bảo hiểm cấp cao cho người thân
-🤞Được code cùng sếp đẹp trai
-Inbox để em tư vấn thêm về job nhé!
-Email: phucnlm@rikkeisoft.com</t>
-  </si>
-  <si>
-    <t>[ 𝐷𝐴 𝑁𝐴𝑁𝐺 - 𝑈𝑋/𝑈𝐼 𝐷𝐸𝑆𝐼𝐺𝑁𝐸𝑅 - 𝑀𝑂𝐵𝐼𝐿𝐸 𝐴𝑃𝑃𝑆]
-𝐀𝐬𝐭𝐫𝐚𝐥𝐞𝐫 𝐓𝐞𝐜𝐡𝐧𝐨𝐥𝐨𝐠𝐲 [Nguyễn Văn Linh - Đà Nẵng] đang có nhu cầu mời thêm 2 bạn 𝐔𝐗/𝐔𝐈 𝐃𝐞𝐬𝐢𝐠𝐧𝐞𝐫 vào team của tụi mình đây. 👋
-𝐀𝐬𝐭𝐫𝐚𝐥𝐞𝐫 là DN chuyên về sản xuất 𝐦𝐨𝐛𝐢𝐥𝐞 𝐚𝐩𝐩𝐬… Xem thêm với môi trường làm việc chuyên nghiệp, trẻ trung, đề cao tính sáng tạo và tôn trọng cá tính, màu sắc riêng có của mỗi cá nhân. 😎🥳
-Các bạn quan tâm vui lòng xem chi tiết công việc ở đường dẫn bên dưới nhé!
-- 𝐉𝐃𝐬: https://astraler.com/jobs/ui-ux-graphic-designer
-- Vị trí: Nhân viên chính thức, làm việc on-site theo giờ hành chính (từ 8h đến 17h30)
-- Lương: Thỏa thuận (up to 20.000.000 đ/tháng)😍
-- Gửi CV về: hr@astraler.com hoặc ứng tuyển qua website: https://astraler.com/#jobs
-- Địa chỉ làm việc: Astraler Technology, tầng 6, tòa nhà Bưu điện, 271 Nguyễn Văn Linh, Đà Nẵng.</t>
-  </si>
-  <si>
-    <t>Em có chút base về IOS không biết trong nhóm có cty nào tuyển intern IOS không ạ</t>
   </si>
 </sst>
 </file>
@@ -562,16 +657,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="66.44140625" customWidth="1"/>
-    <col min="12" max="12" width="61" customWidth="1"/>
+    <col min="1" max="1" width="198.88671875" customWidth="1"/>
+    <col min="12" max="12" width="73.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -613,6 +706,9 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
       <c r="B2">
         <v>0</v>
       </c>
@@ -641,15 +737,15 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L2" s="2">
-        <v>45229.769178240742</v>
+        <v>44370.664479166669</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -679,15 +775,15 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L3" s="2">
-        <v>45229.729756944442</v>
+        <v>45231.437928240739</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -720,12 +816,12 @@
         <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>45229.928773148153</v>
+        <v>45233.676770833343</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -755,15 +851,15 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L5" s="2">
-        <v>45229.595972222232</v>
+        <v>45232.579780092587</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -796,10 +892,13 @@
         <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>45229.72347222222</v>
+        <v>45233.406030092592</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
       <c r="B7">
         <v>0</v>
       </c>
@@ -831,12 +930,12 @@
         <v>0</v>
       </c>
       <c r="L7" s="2">
-        <v>45230.432199074072</v>
+        <v>45229.49454861111</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -866,15 +965,15 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>45226.490694444437</v>
+        <v>45232.43854166667</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -907,12 +1006,12 @@
         <v>0</v>
       </c>
       <c r="L9" s="2">
-        <v>45228.849652777782</v>
+        <v>45232.580081018517</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -945,12 +1044,12 @@
         <v>0</v>
       </c>
       <c r="L10" s="2">
-        <v>45229.201041666667</v>
+        <v>45232.426215277781</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -983,12 +1082,12 @@
         <v>0</v>
       </c>
       <c r="L11" s="2">
-        <v>45225.68818287037</v>
+        <v>45231.585775462961</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1021,12 +1120,12 @@
         <v>0</v>
       </c>
       <c r="L12" s="2">
-        <v>45226.469039351847</v>
+        <v>45230.670185185183</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1059,12 +1158,12 @@
         <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>45225.494768518518</v>
+        <v>45230.617766203701</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1094,13 +1193,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L14" s="2">
-        <v>45225.444085648152</v>
+        <v>45229.729756944442</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
       <c r="B15">
         <v>0</v>
       </c>
@@ -1132,7 +1234,83 @@
         <v>0</v>
       </c>
       <c r="L15" s="2">
-        <v>45225.857824074083</v>
+        <v>45229.928773148153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>45229.595972222232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>45229.72347222222</v>
       </c>
     </row>
   </sheetData>
